--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HP1\Desktop\MyJoomProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\git\RepoProject\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20027D37-E580-4C09-8AF0-81D279D72A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,9 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -409,7 +409,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -417,7 +417,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">

--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HP1\Desktop\MyJoomProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HP1\Desktop\Workspace\Workspace\com.joom.automation\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Category</t>
   </si>
@@ -32,9 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Smartphones</t>
-  </si>
-  <si>
     <t>Laptops</t>
   </si>
   <si>
@@ -54,6 +52,39 @@
   </si>
   <si>
     <t>Touchscreen devices larger than smartphones, ideal for media and productivity.</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>productcompany</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>product price before discount</t>
+  </si>
+  <si>
+    <t>1,40,000</t>
+  </si>
+  <si>
+    <t>product price after discount</t>
+  </si>
+  <si>
+    <t>1,35,000</t>
+  </si>
+  <si>
+    <t>Mobiles</t>
   </si>
 </sst>
 </file>
@@ -89,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,60 +404,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Category</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Mobiles</t>
+  </si>
+  <si>
+    <t>product shipping charge</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>productAvailability</t>
+  </si>
+  <si>
+    <t>In Stock</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,9 +431,11 @@
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +457,14 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -466,8 +486,14 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\git\RepoProject\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20027D37-E580-4C09-8AF0-81D279D72A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825EEF1-4501-48D9-B72E-B52B8030CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="USER" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Category</t>
   </si>
@@ -55,16 +56,48 @@
   </si>
   <si>
     <t>Touchscreen devices larger than smartphones, ideal for media and productivity.</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Contactno</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +120,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +464,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8CD7F6-6B00-4B71-B3AF-804A83E6A926}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>7897897890</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6FD101D7-66AF-4248-997C-F4A30076D597}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{67268E85-9F68-4BE5-B78C-4D933514EF26}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{D797AE37-8D40-47D3-8192-FE4A9E828161}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HP1\Desktop\Workspace\Workspace\com.joom.automation\src\test\resources\TestScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository2\com.joom.automation\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -97,19 +97,31 @@
   </si>
   <si>
     <t>In Stock</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Micromax Canvas Laptab II (WIFI) Atom 4th Gen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,10 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,9 +446,10 @@
     <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +477,11 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -492,8 +509,11 @@
       <c r="I2" t="s">
         <v>23</v>
       </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,15 +521,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository2\com.joom.automation\src\test\resources\TestScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\JoomRepo\com.joom.automation\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,7 +102,7 @@
     <t>ProductName</t>
   </si>
   <si>
-    <t>Micromax Canvas Laptab II (WIFI) Atom 4th Gen</t>
+    <t>Lenovo Ideapad 110 APU Quad Core A6 6th Gen</t>
   </si>
 </sst>
 </file>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
       <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
